--- a/maintainance.xlsx
+++ b/maintainance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/aryan_shinde_msci_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{FCDFF508-F554-419B-B51E-31E07063EE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D24D6E2-CD84-40F5-8625-D7BB6BAE1C19}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{FCDFF508-F554-419B-B51E-31E07063EE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C67AF37-EF7D-42B9-8063-DFAF8718BA87}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3F3C3555-80D1-4B7F-AA76-0E7F5F9FFB10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{3F3C3555-80D1-4B7F-AA76-0E7F5F9FFB10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Period</t>
   </si>
@@ -44,9 +44,6 @@
     <t>maintainance amount</t>
   </si>
   <si>
-    <t>interest on arrears</t>
-  </si>
-  <si>
     <t>01-Oct-2010 - 31-Mar-2011</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>01-Jan-2019 - 31-Mar-2019</t>
   </si>
   <si>
-    <t>01-Apr-2019 - 30-Sep-2019</t>
-  </si>
-  <si>
     <t>01-Oct-2019 - 31-Mar-2020</t>
   </si>
   <si>
@@ -210,6 +204,12 @@
   </si>
   <si>
     <t>01-Jul-2025 - 30-Sep-2025</t>
+  </si>
+  <si>
+    <t>01-Jul-2019 - 30-Sep-2019</t>
+  </si>
+  <si>
+    <t>====================</t>
   </si>
 </sst>
 </file>
@@ -249,8 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,66 +589,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E50E56-963F-4FD5-B440-DE00B5352488}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="18.453125" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>7456</v>
@@ -665,9 +668,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>7456</v>
@@ -688,9 +691,9 @@
         <v>7456</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>7456</v>
@@ -711,9 +714,9 @@
         <v>7456</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>7456</v>
@@ -734,9 +737,9 @@
         <v>7456</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>7456</v>
@@ -757,9 +760,9 @@
         <v>7456</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>14061</v>
@@ -777,15 +780,15 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <v>7456</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>8400</v>
@@ -806,9 +809,9 @@
         <v>14061</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>23100</v>
@@ -829,9 +832,9 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>7700</v>
@@ -852,9 +855,9 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>7700</v>
@@ -875,9 +878,9 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>7700</v>
@@ -898,9 +901,9 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>8594</v>
@@ -924,9 +927,9 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>7998</v>
@@ -947,263 +950,263 @@
         <v>8594</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>7998</v>
+      </c>
+      <c r="C15">
+        <v>4500</v>
+      </c>
+      <c r="D15">
+        <v>998</v>
+      </c>
+      <c r="E15">
+        <v>2400</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
-        <v>7998</v>
-      </c>
-      <c r="C15">
-        <v>4500</v>
-      </c>
-      <c r="D15">
-        <v>998</v>
-      </c>
-      <c r="E15">
-        <v>2400</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="K15">
-        <v>7998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>7998</v>
+      </c>
+      <c r="C16">
+        <v>4500</v>
+      </c>
+      <c r="D16">
+        <v>998</v>
+      </c>
+      <c r="E16">
+        <v>2400</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
-        <v>7998</v>
-      </c>
-      <c r="C16">
-        <v>4500</v>
-      </c>
-      <c r="D16">
-        <v>998</v>
-      </c>
-      <c r="E16">
-        <v>2400</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="K16">
-        <v>7998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>7998</v>
+      </c>
+      <c r="C17">
+        <v>4500</v>
+      </c>
+      <c r="D17">
+        <v>998</v>
+      </c>
+      <c r="E17">
+        <v>2400</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>7998</v>
+      </c>
+      <c r="L17">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
-        <v>7998</v>
-      </c>
-      <c r="C17">
-        <v>4500</v>
-      </c>
-      <c r="D17">
-        <v>998</v>
-      </c>
-      <c r="E17">
-        <v>2400</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="K17">
-        <v>7998</v>
-      </c>
-      <c r="M17">
-        <v>3586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>7998</v>
+      </c>
+      <c r="C18">
+        <v>4500</v>
+      </c>
+      <c r="D18">
+        <v>998</v>
+      </c>
+      <c r="E18">
+        <v>2400</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>7998</v>
+      </c>
+      <c r="L18">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
-        <v>7998</v>
-      </c>
-      <c r="C18">
-        <v>4500</v>
-      </c>
-      <c r="D18">
-        <v>998</v>
-      </c>
-      <c r="E18">
-        <v>2400</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="K18">
-        <v>7998</v>
-      </c>
-      <c r="M18">
-        <v>7411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>7998</v>
+      </c>
+      <c r="C19">
+        <v>4500</v>
+      </c>
+      <c r="D19">
+        <v>998</v>
+      </c>
+      <c r="E19">
+        <v>2400</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>7998</v>
+      </c>
+      <c r="L19">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
-        <v>7998</v>
-      </c>
-      <c r="C19">
-        <v>4500</v>
-      </c>
-      <c r="D19">
-        <v>998</v>
-      </c>
-      <c r="E19">
-        <v>2400</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="K19">
-        <v>7998</v>
-      </c>
-      <c r="M19">
-        <v>7900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>7998</v>
+      </c>
+      <c r="C20">
+        <v>4500</v>
+      </c>
+      <c r="D20">
+        <v>998</v>
+      </c>
+      <c r="E20">
+        <v>2400</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>7998</v>
+      </c>
+      <c r="L20">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B20">
-        <v>7998</v>
-      </c>
-      <c r="C20">
-        <v>4500</v>
-      </c>
-      <c r="D20">
-        <v>998</v>
-      </c>
-      <c r="E20">
-        <v>2400</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="K20">
-        <v>7998</v>
-      </c>
-      <c r="M20">
-        <v>7904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>7998</v>
+      </c>
+      <c r="C21">
+        <v>4500</v>
+      </c>
+      <c r="D21">
+        <v>998</v>
+      </c>
+      <c r="E21">
+        <v>2400</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>7998</v>
+      </c>
+      <c r="L21">
+        <v>8536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
-        <v>7998</v>
-      </c>
-      <c r="C21">
-        <v>4500</v>
-      </c>
-      <c r="D21">
-        <v>998</v>
-      </c>
-      <c r="E21">
-        <v>2400</v>
-      </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="K21">
-        <v>7998</v>
-      </c>
-      <c r="M21">
-        <v>8536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>7998</v>
+      </c>
+      <c r="C22">
+        <v>4500</v>
+      </c>
+      <c r="D22">
+        <v>998</v>
+      </c>
+      <c r="E22">
+        <v>2400</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>7998</v>
+      </c>
+      <c r="L22">
+        <v>9405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
-        <v>7998</v>
-      </c>
-      <c r="C22">
-        <v>4500</v>
-      </c>
-      <c r="D22">
-        <v>998</v>
-      </c>
-      <c r="E22">
-        <v>2400</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-      <c r="K22">
-        <v>7998</v>
-      </c>
-      <c r="M22">
-        <v>9405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>7998</v>
+      </c>
+      <c r="C23">
+        <v>4500</v>
+      </c>
+      <c r="D23">
+        <v>998</v>
+      </c>
+      <c r="E23">
+        <v>2400</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>7998</v>
+      </c>
+      <c r="L23">
+        <v>9042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
-        <v>7998</v>
-      </c>
-      <c r="C23">
-        <v>4500</v>
-      </c>
-      <c r="D23">
-        <v>998</v>
-      </c>
-      <c r="E23">
-        <v>2400</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="K23">
-        <v>7998</v>
-      </c>
-      <c r="M23">
-        <v>9042</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>7998</v>
+      </c>
+      <c r="C24">
+        <v>4500</v>
+      </c>
+      <c r="D24">
+        <v>998</v>
+      </c>
+      <c r="E24">
+        <v>2400</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>7998</v>
+      </c>
+      <c r="L24">
+        <v>9796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>34</v>
-      </c>
-      <c r="B24">
-        <v>7998</v>
-      </c>
-      <c r="C24">
-        <v>4500</v>
-      </c>
-      <c r="D24">
-        <v>998</v>
-      </c>
-      <c r="E24">
-        <v>2400</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="K24">
-        <v>7998</v>
-      </c>
-      <c r="M24">
-        <v>9796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
       </c>
       <c r="B25">
         <v>8868</v>
@@ -1223,13 +1226,13 @@
       <c r="K25">
         <v>7998</v>
       </c>
-      <c r="M25">
+      <c r="L25">
         <v>9314</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>9769</v>
@@ -1249,13 +1252,13 @@
       <c r="K26">
         <v>8868</v>
       </c>
-      <c r="M26">
+      <c r="L26">
         <v>9950</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>9769</v>
@@ -1275,13 +1278,13 @@
       <c r="K27">
         <v>9769</v>
       </c>
-      <c r="M27">
+      <c r="L27">
         <v>17311</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>19538</v>
@@ -1301,13 +1304,13 @@
       <c r="K28">
         <v>9769</v>
       </c>
-      <c r="M28">
+      <c r="L28">
         <v>37465</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>19538</v>
@@ -1327,13 +1330,13 @@
       <c r="K29">
         <v>19538</v>
       </c>
-      <c r="M29">
+      <c r="L29">
         <v>43451</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>19538</v>
@@ -1353,13 +1356,13 @@
       <c r="K30">
         <v>19538</v>
       </c>
-      <c r="M30">
+      <c r="L30">
         <v>50065</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>19538</v>
@@ -1379,13 +1382,13 @@
       <c r="K31">
         <v>19538</v>
       </c>
-      <c r="M31">
+      <c r="L31">
         <v>57373</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>14038</v>
@@ -1402,13 +1405,13 @@
       <c r="K32">
         <v>19538</v>
       </c>
-      <c r="M32">
+      <c r="L32">
         <v>65448</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>12352</v>
@@ -1428,13 +1431,13 @@
       <c r="K33">
         <v>14038</v>
       </c>
-      <c r="M33">
+      <c r="L33">
         <v>73795</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>8952</v>
@@ -1454,13 +1457,13 @@
       <c r="K34">
         <v>12352</v>
       </c>
-      <c r="M34">
+      <c r="L34">
         <v>41420</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>14038</v>
@@ -1477,13 +1480,13 @@
       <c r="K35">
         <v>8952</v>
       </c>
-      <c r="M35">
+      <c r="L35">
         <v>44065</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>7019</v>
@@ -1500,13 +1503,13 @@
       <c r="K36">
         <v>14038</v>
       </c>
-      <c r="M36">
+      <c r="L36">
         <v>47115</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>7019</v>
@@ -1523,13 +1526,13 @@
       <c r="K37">
         <v>7019</v>
       </c>
-      <c r="M37">
+      <c r="L37">
         <v>49957</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>7019</v>
@@ -1546,13 +1549,13 @@
       <c r="K38">
         <v>7019</v>
       </c>
-      <c r="M38">
+      <c r="L38">
         <v>52948</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>7019</v>
@@ -1569,13 +1572,13 @@
       <c r="K39">
         <v>7019</v>
       </c>
-      <c r="M39">
+      <c r="L39">
         <v>56096</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>7019</v>
@@ -1592,13 +1595,13 @@
       <c r="K40">
         <v>7019</v>
       </c>
-      <c r="M40">
+      <c r="L40">
         <v>59410</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>7019</v>
@@ -1615,13 +1618,13 @@
       <c r="K41">
         <v>7019</v>
       </c>
-      <c r="M41">
+      <c r="L41">
         <v>62898</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>6021</v>
@@ -1635,13 +1638,13 @@
       <c r="K42">
         <v>7019</v>
       </c>
-      <c r="M42">
+      <c r="L42">
         <v>66568</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>6021</v>
@@ -1655,13 +1658,13 @@
       <c r="K43">
         <v>6021</v>
       </c>
-      <c r="M43">
+      <c r="L43">
         <v>70379</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>6021</v>
@@ -1675,13 +1678,13 @@
       <c r="K44">
         <v>6021</v>
       </c>
-      <c r="M44">
+      <c r="L44">
         <v>74390</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>6021</v>
@@ -1695,13 +1698,86 @@
       <c r="K45">
         <v>6021</v>
       </c>
-      <c r="M45">
+      <c r="L45">
         <v>78612</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K46">
         <v>6021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>424649</v>
+      </c>
+      <c r="C49">
+        <v>271466</v>
+      </c>
+      <c r="D49">
+        <v>44210</v>
+      </c>
+      <c r="E49">
+        <v>91250</v>
+      </c>
+      <c r="F49">
+        <v>5200</v>
+      </c>
+      <c r="G49">
+        <v>5333</v>
+      </c>
+      <c r="H49">
+        <v>1933</v>
+      </c>
+      <c r="I49">
+        <v>5661</v>
+      </c>
+      <c r="J49">
+        <v>596</v>
+      </c>
+      <c r="K49">
+        <v>426649</v>
+      </c>
+      <c r="L49">
+        <v>1131610</v>
       </c>
     </row>
   </sheetData>
